--- a/Bibsam_tidskriftslistor/scifree_data_iwa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_iwa.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F6713C95BC6D6C505186E45C34475E95226B6AFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77AF093A-2152-4ADA-B3EE-3090CC2C74A2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>Open</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Imprint</t>
   </si>
   <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
     <t>CC-BY</t>
   </si>
   <si>
@@ -208,12 +206,24 @@
   </si>
   <si>
     <t>https://iwaponline.com/ws</t>
+  </si>
+  <si>
+    <t>Ingeniería del agua</t>
+  </si>
+  <si>
+    <t>https://iwaponline.com/ia</t>
+  </si>
+  <si>
+    <t>1134-2196</t>
+  </si>
+  <si>
+    <t>1886-4996</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,7 +273,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -331,19 +343,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G15"/>
-  <sortState ref="A2:G8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
     <sortCondition ref="D1:D8"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,23 +623,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="49.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -650,336 +664,359 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>61</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E15">
-    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
+  <conditionalFormatting sqref="D1:D23 D25:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+  <conditionalFormatting sqref="E2:E16">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>